--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6B7FB-82EA-4CA2-A9E6-DCAA8F85AC6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D8869-0417-4E87-A1D6-1BEC12E76840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>what</t>
   </si>
@@ -43,21 +43,12 @@
     <t>Jun. 2020</t>
   </si>
   <si>
-    <t>Data Visualisation</t>
-  </si>
-  <si>
     <t>Jul. 2020</t>
   </si>
   <si>
-    <t>Max Planck Institute</t>
-  </si>
-  <si>
     <t>Jun. 2019</t>
   </si>
   <si>
-    <t>Paleoecology</t>
-  </si>
-  <si>
     <t>Feb. 2018</t>
   </si>
   <si>
@@ -65,13 +56,32 @@
   </si>
   <si>
     <t>University of Michigan (via Coursera)</t>
+  </si>
+  <si>
+    <t>Data visualization – the art/skill
+cocktail</t>
+  </si>
+  <si>
+    <t>Max Planck Institute for Demographic Research</t>
+  </si>
+  <si>
+    <t>Modelling in Palaeoecology</t>
+  </si>
+  <si>
+    <t>Citizen Science – Innovation in Open Science, Society and Policy</t>
+  </si>
+  <si>
+    <t>Aug. 2019</t>
+  </si>
+  <si>
+    <t>German Centre for Integrative Biodiversity Research (iDiv) Halle-Jena-Leipzig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +109,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -131,6 +149,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,15 +453,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,34 +480,45 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
